--- a/docs/instruments/instruments_equities.xlsx
+++ b/docs/instruments/instruments_equities.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/473b92f90a934bc4/1 Projects/hedgemind/media/reference_data/instruments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/473b92f90a934bc4/1 Projects/hedgemind/docs/instruments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{0BE18211-EF4E-483B-A684-8BCA31EF9D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6AAAD5C-DA12-44FF-B7BC-0D0E34DD5040}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{0BE18211-EF4E-483B-A684-8BCA31EF9D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF1BB41B-8D32-4FC9-8EA1-75B1CFB278F4}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{6A5695E8-C4FF-4412-8B74-C1EE0AA69659}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{6A5695E8-C4FF-4412-8B74-C1EE0AA69659}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUMENTS" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>CM</t>
   </si>
   <si>
-    <t>MARK_TO_MARKET</t>
-  </si>
-  <si>
     <t>ticker</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>maturity</t>
+  </si>
+  <si>
+    <t>mark_to_market</t>
   </si>
 </sst>
 </file>
@@ -548,7 +548,7 @@
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="L2" sqref="L2:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -584,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -611,211 +611,211 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" t="s">
         <v>37</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>38</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" t="s">
         <v>39</v>
       </c>
-      <c r="P1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>40</v>
-      </c>
-      <c r="V1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
         <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
         <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
         <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
         <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
         <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
